--- a/fmri optional params description.xlsx
+++ b/fmri optional params description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spanta/Desktop/coinstac_fmri_custom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spanta/Desktop/Coinstac_fmri_computation-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C328704-9AB4-E64D-B7A8-C87DC5B5CE86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED4E21-D509-5A42-838C-D4E4D218C852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="25460" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
+    <workbookView xWindow="8380" yWindow="460" windowWidth="25460" windowHeight="16540" xr2:uid="{BD0A0AD1-3174-D640-9BEC-B155143957CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
   <si>
     <t>Range (if applicable)</t>
   </si>
@@ -392,6 +392,39 @@
   </si>
   <si>
     <t>options_normalize_write_voxel_sizes</t>
+  </si>
+  <si>
+    <t>Number of slices</t>
+  </si>
+  <si>
+    <t>Check with Vince</t>
+  </si>
+  <si>
+    <t>Repetition time(secs)</t>
+  </si>
+  <si>
+    <t>Repetition time in secs</t>
+  </si>
+  <si>
+    <t>Acquisition order</t>
+  </si>
+  <si>
+    <t>Slicetime acquisition order</t>
+  </si>
+  <si>
+    <t>array of number items. Size of array MUST BE EQUAL TO number of slices. So you can do this check in the UI incase the customer enters the num_slices and acquisition_order</t>
+  </si>
+  <si>
+    <t>array with int items. Size of array MUST BE EQUAL TO number of slices.</t>
+  </si>
+  <si>
+    <t>options_num_slices</t>
+  </si>
+  <si>
+    <t>options_repetition_time</t>
+  </si>
+  <si>
+    <t>options_acquisition_order</t>
   </si>
 </sst>
 </file>
@@ -768,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02653A44-2EC6-7B4D-BD87-DB1B35EEC98F}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,104 +1374,179 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="356" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="356" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1450,6 +1558,9 @@
     <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
